--- a/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
+++ b/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t>Record</t>
   </si>
@@ -90,28 +90,28 @@
     <t>98.6%</t>
   </si>
   <si>
-    <t>84.3%</t>
-  </si>
-  <si>
-    <t>77.0%</t>
-  </si>
-  <si>
-    <t>71.7%</t>
-  </si>
-  <si>
-    <t>69.1%</t>
-  </si>
-  <si>
-    <t>62.0%</t>
-  </si>
-  <si>
-    <t>23.2%</t>
-  </si>
-  <si>
-    <t>8.4%</t>
-  </si>
-  <si>
-    <t>5.7%</t>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>79.7%</t>
+  </si>
+  <si>
+    <t>70.6%</t>
+  </si>
+  <si>
+    <t>70.1%</t>
+  </si>
+  <si>
+    <t>61.0%</t>
+  </si>
+  <si>
+    <t>25.8%</t>
+  </si>
+  <si>
+    <t>8.2%</t>
+  </si>
+  <si>
+    <t>5.1%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -123,28 +123,28 @@
     <t>-7043</t>
   </si>
   <si>
-    <t>-537</t>
-  </si>
-  <si>
-    <t>-335</t>
-  </si>
-  <si>
-    <t>-253</t>
-  </si>
-  <si>
-    <t>-224</t>
-  </si>
-  <si>
-    <t>-163</t>
-  </si>
-  <si>
-    <t>+331</t>
-  </si>
-  <si>
-    <t>+1090</t>
-  </si>
-  <si>
-    <t>+1654</t>
+    <t>-424</t>
+  </si>
+  <si>
+    <t>-393</t>
+  </si>
+  <si>
+    <t>-240</t>
+  </si>
+  <si>
+    <t>-234</t>
+  </si>
+  <si>
+    <t>-156</t>
+  </si>
+  <si>
+    <t>+288</t>
+  </si>
+  <si>
+    <t>+1120</t>
+  </si>
+  <si>
+    <t>+1861</t>
   </si>
   <si>
     <t>+∞</t>
@@ -153,52 +153,58 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>70.5%</t>
-  </si>
-  <si>
-    <t>20.8%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>2.6%</t>
-  </si>
-  <si>
-    <t>0.5%</t>
+    <t>65.7%</t>
+  </si>
+  <si>
+    <t>25.2%</t>
+  </si>
+  <si>
+    <t>5.8%</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
   </si>
   <si>
     <t>0.4%</t>
   </si>
   <si>
-    <t>-239</t>
-  </si>
-  <si>
-    <t>+381</t>
-  </si>
-  <si>
-    <t>+1983</t>
-  </si>
-  <si>
-    <t>+3746</t>
-  </si>
-  <si>
-    <t>+19900</t>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>-192</t>
+  </si>
+  <si>
+    <t>+297</t>
+  </si>
+  <si>
+    <t>+1624</t>
+  </si>
+  <si>
+    <t>+5782</t>
+  </si>
+  <si>
+    <t>+9900</t>
   </si>
   <si>
     <t>+24900</t>
   </si>
   <si>
-    <t>56.5%</t>
-  </si>
-  <si>
-    <t>43.5%</t>
-  </si>
-  <si>
-    <t>-130</t>
-  </si>
-  <si>
-    <t>+130</t>
+    <t>+49900</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>45.2%</t>
+  </si>
+  <si>
+    <t>-121</t>
+  </si>
+  <si>
+    <t>+121</t>
   </si>
 </sst>
 </file>
@@ -782,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -796,7 +802,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -810,7 +816,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -824,12 +830,12 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -838,12 +844,12 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -852,21 +858,21 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -974,10 +980,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -988,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
+++ b/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
   <si>
     <t>Record</t>
   </si>
@@ -30,88 +30,76 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Chase Ball. Touchdown!</t>
+  </si>
+  <si>
     <t>Chill YNs</t>
   </si>
   <si>
+    <t>Club Penguins</t>
+  </si>
+  <si>
     <t>Ross' Sauces</t>
   </si>
   <si>
-    <t>Club Penguins</t>
-  </si>
-  <si>
-    <t>Chase Ball. Touchdown!</t>
+    <t>BetterThanDeanAtSF6</t>
+  </si>
+  <si>
+    <t>Papa Murphy’s Pizza</t>
+  </si>
+  <si>
+    <t>Yvng Killas</t>
   </si>
   <si>
     <t>Balls@ck Gafoor</t>
   </si>
   <si>
-    <t>Papa Murphy’s Pizza</t>
-  </si>
-  <si>
-    <t>BetterThanDeanAtSF6</t>
+    <t>TUFF</t>
+  </si>
+  <si>
+    <t>dFIBulators</t>
+  </si>
+  <si>
+    <t>Caleb's Calculated Team</t>
   </si>
   <si>
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>Yvng Killas</t>
-  </si>
-  <si>
-    <t>dFIBulators</t>
-  </si>
-  <si>
-    <t>TUFF</t>
-  </si>
-  <si>
-    <t>Caleb's Calculated Team</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>5-7</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>98.6%</t>
-  </si>
-  <si>
-    <t>80.9%</t>
-  </si>
-  <si>
-    <t>79.7%</t>
-  </si>
-  <si>
-    <t>70.6%</t>
-  </si>
-  <si>
-    <t>70.1%</t>
-  </si>
-  <si>
-    <t>61.0%</t>
-  </si>
-  <si>
-    <t>25.8%</t>
-  </si>
-  <si>
-    <t>8.2%</t>
-  </si>
-  <si>
-    <t>5.1%</t>
+    <t>99.2%</t>
+  </si>
+  <si>
+    <t>98.9%</t>
+  </si>
+  <si>
+    <t>67.6%</t>
+  </si>
+  <si>
+    <t>67.0%</t>
+  </si>
+  <si>
+    <t>38.1%</t>
+  </si>
+  <si>
+    <t>29.2%</t>
   </si>
   <si>
     <t>0.0%</t>
@@ -120,31 +108,22 @@
     <t>-∞</t>
   </si>
   <si>
-    <t>-7043</t>
-  </si>
-  <si>
-    <t>-424</t>
-  </si>
-  <si>
-    <t>-393</t>
-  </si>
-  <si>
-    <t>-240</t>
-  </si>
-  <si>
-    <t>-234</t>
-  </si>
-  <si>
-    <t>-156</t>
-  </si>
-  <si>
-    <t>+288</t>
-  </si>
-  <si>
-    <t>+1120</t>
-  </si>
-  <si>
-    <t>+1861</t>
+    <t>-12400</t>
+  </si>
+  <si>
+    <t>-8991</t>
+  </si>
+  <si>
+    <t>-209</t>
+  </si>
+  <si>
+    <t>-203</t>
+  </si>
+  <si>
+    <t>+162</t>
+  </si>
+  <si>
+    <t>+242</t>
   </si>
   <si>
     <t>+∞</t>
@@ -153,58 +132,46 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>65.7%</t>
-  </si>
-  <si>
-    <t>25.2%</t>
-  </si>
-  <si>
-    <t>5.8%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>1.0%</t>
+    <t>59.9%</t>
+  </si>
+  <si>
+    <t>23.0%</t>
+  </si>
+  <si>
+    <t>10.5%</t>
+  </si>
+  <si>
+    <t>5.6%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
   </si>
   <si>
     <t>0.4%</t>
   </si>
   <si>
-    <t>0.2%</t>
-  </si>
-  <si>
-    <t>-192</t>
-  </si>
-  <si>
-    <t>+297</t>
-  </si>
-  <si>
-    <t>+1624</t>
-  </si>
-  <si>
-    <t>+5782</t>
-  </si>
-  <si>
-    <t>+9900</t>
+    <t>-149</t>
+  </si>
+  <si>
+    <t>+335</t>
+  </si>
+  <si>
+    <t>+852</t>
+  </si>
+  <si>
+    <t>+1686</t>
+  </si>
+  <si>
+    <t>+16567</t>
   </si>
   <si>
     <t>+24900</t>
   </si>
   <si>
-    <t>+49900</t>
-  </si>
-  <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
-    <t>-121</t>
-  </si>
-  <si>
-    <t>+121</t>
+    <t>32.4%</t>
+  </si>
+  <si>
+    <t>+209</t>
   </si>
 </sst>
 </file>
@@ -590,10 +557,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -601,13 +568,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -615,13 +582,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -632,10 +599,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -643,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -657,13 +624,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -674,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -685,13 +652,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -702,10 +669,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -713,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -727,13 +694,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -741,13 +708,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -779,30 +746,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -813,10 +780,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -824,83 +791,83 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -908,41 +875,41 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -974,72 +941,72 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1047,41 +1014,41 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1089,13 +1056,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1103,41 +1070,41 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
+++ b/odds/Ross' Fantasy League 2025 Betting Odds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
   <si>
     <t>Record</t>
   </si>
@@ -30,30 +30,30 @@
     <t>Team</t>
   </si>
   <si>
+    <t>Ross' Sauces</t>
+  </si>
+  <si>
     <t>Chase Ball. Touchdown!</t>
   </si>
   <si>
     <t>Chill YNs</t>
   </si>
   <si>
+    <t>Balls@ck Gafoor</t>
+  </si>
+  <si>
     <t>Club Penguins</t>
   </si>
   <si>
-    <t>Ross' Sauces</t>
-  </si>
-  <si>
     <t>BetterThanDeanAtSF6</t>
   </si>
   <si>
+    <t>Yvng Killas</t>
+  </si>
+  <si>
     <t>Papa Murphy’s Pizza</t>
   </si>
   <si>
-    <t>Yvng Killas</t>
-  </si>
-  <si>
-    <t>Balls@ck Gafoor</t>
-  </si>
-  <si>
     <t>TUFF</t>
   </si>
   <si>
@@ -66,112 +66,40 @@
     <t>Dookey Dukes</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>5-7</t>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>99.2%</t>
-  </si>
-  <si>
-    <t>98.9%</t>
-  </si>
-  <si>
-    <t>67.6%</t>
-  </si>
-  <si>
-    <t>67.0%</t>
-  </si>
-  <si>
-    <t>38.1%</t>
-  </si>
-  <si>
-    <t>29.2%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
     <t>-∞</t>
   </si>
   <si>
-    <t>-12400</t>
-  </si>
-  <si>
-    <t>-8991</t>
-  </si>
-  <si>
-    <t>-209</t>
-  </si>
-  <si>
-    <t>-203</t>
-  </si>
-  <si>
-    <t>+162</t>
-  </si>
-  <si>
-    <t>+242</t>
-  </si>
-  <si>
     <t>+∞</t>
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>59.9%</t>
-  </si>
-  <si>
-    <t>23.0%</t>
-  </si>
-  <si>
-    <t>10.5%</t>
-  </si>
-  <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>-149</t>
-  </si>
-  <si>
-    <t>+335</t>
-  </si>
-  <si>
-    <t>+852</t>
-  </si>
-  <si>
-    <t>+1686</t>
-  </si>
-  <si>
-    <t>+16567</t>
-  </si>
-  <si>
-    <t>+24900</t>
-  </si>
-  <si>
-    <t>32.4%</t>
-  </si>
-  <si>
-    <t>+209</t>
   </si>
 </sst>
 </file>
@@ -557,10 +485,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -571,10 +499,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -585,10 +513,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -596,13 +524,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -610,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -624,13 +552,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -638,13 +566,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -655,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -666,13 +594,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -680,13 +608,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -694,13 +622,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -708,13 +636,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -738,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -746,16 +674,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -766,136 +694,136 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -903,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -941,156 +869,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1098,13 +1026,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
